--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1031417.683226826</v>
+        <v>1050610.37011791</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453906</v>
+        <v>5435918.08814848</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178672</v>
+        <v>2632905.856953525</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8258107.867075041</v>
+        <v>8593741.06445564</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>387.9237459840447</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>107.7390777557356</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -671,13 +673,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>104.4010226578154</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -877,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>116.9164035046649</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +898,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>283.0759206880915</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>100.7785892888333</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>76.43104772188494</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1142,16 +1144,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>83.90498662806012</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>140.1552455631619</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>118.5003257294306</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>57.68485424712848</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>184.7272949932727</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>262.3797627407363</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>207.0267645785854</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,16 +1615,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>39.19841311029197</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>365.0691692779443</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1828,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1850,10 +1852,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1907,10 +1909,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>351.080144279057</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>43.44362966055525</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>152.0685100933578</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>360.466525206183</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2144,10 +2146,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>351.080144279057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>116.0240661065096</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>220.9263373332085</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2324,10 +2326,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2336,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>67.34451602363485</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>140.6726284492659</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2567,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2615,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>343.5575398289572</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y28" t="n">
-        <v>165.421695385058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2797,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>108.2642464846189</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2968,7 +2970,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>44.74588807992552</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>53.20093248929926</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3095,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>300.7823595432042</v>
       </c>
     </row>
     <row r="33">
@@ -3199,10 +3201,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>46.40753672032049</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.31383608752344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>406.1634062037608</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3323,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>28.01490760909618</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>363.9585094926619</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.88126300749902</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>172.3339650437855</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.9202602248441235</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3901,16 +3903,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>132.7574783880936</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0.8962612405997401</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3985,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>67.60036975921631</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>142.0130109012725</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23.59687877511841</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4147,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>27.35334490128844</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1503.949453881793</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C2" t="n">
-        <v>1497.865267235467</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D2" t="n">
-        <v>1389.037915967048</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E2" t="n">
-        <v>974.6977004839443</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>553.6672884376319</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>783.60435703581</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.621472424083</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O2" t="n">
-        <v>2152.252328841188</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>2681.409026760339</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2571.87452311782</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2314.81403137733</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2314.81403137733</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2314.81403137733</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1914.170633546283</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1914.170633546283</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>1338.679142791659</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1999.767314710947</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>2579.517617692877</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N3" t="n">
-        <v>2579.517617692877</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>2579.517617692877</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>2579.517617692877</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328.6739459791837</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="C4" t="n">
-        <v>328.6739459791837</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="D4" t="n">
-        <v>328.6739459791837</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6739459791837</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F4" t="n">
-        <v>164.042820089775</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1348.437399245089</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1065.639251791214</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>791.7535067307356</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>791.7535067307356</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X4" t="n">
-        <v>553.409644590419</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="Y4" t="n">
-        <v>328.6739459791837</v>
+        <v>191.3725408241454</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>770.0583231325802</v>
+        <v>2226.216304634987</v>
       </c>
       <c r="C5" t="n">
-        <v>763.9741364862543</v>
+        <v>1816.091713948257</v>
       </c>
       <c r="D5" t="n">
-        <v>763.5506106197189</v>
+        <v>1411.627784041318</v>
       </c>
       <c r="E5" t="n">
-        <v>753.2507991770196</v>
+        <v>997.2875685582145</v>
       </c>
       <c r="F5" t="n">
-        <v>467.315525754705</v>
+        <v>576.2571565119021</v>
       </c>
       <c r="G5" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J5" t="n">
-        <v>188.0203049894718</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K5" t="n">
-        <v>726.1798060985113</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L5" t="n">
-        <v>1438.771205910749</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M5" t="n">
-        <v>2163.788321299022</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N5" t="n">
-        <v>2888.805436687295</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O5" t="n">
-        <v>2888.805436687295</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P5" t="n">
-        <v>2888.805436687295</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T5" t="n">
-        <v>2571.87452311782</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="U5" t="n">
-        <v>2314.81403137733</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="V5" t="n">
-        <v>1964.976476713811</v>
+        <v>3821.777856047266</v>
       </c>
       <c r="W5" t="n">
-        <v>1581.216175848979</v>
+        <v>3438.017555182434</v>
       </c>
       <c r="X5" t="n">
-        <v>1581.216175848979</v>
+        <v>3037.374157351387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1180.27950279707</v>
+        <v>2636.437484299477</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>2691.197132126405</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>2557.20206087535</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>2440.304903094743</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>2319.812087087071</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>2210.852207269576</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>2103.862094583914</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>2033.11488161963</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>2012.366290239871</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>2012.366290239871</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>2468.172546505169</v>
       </c>
       <c r="L6" t="n">
-        <v>1175.481669832124</v>
+        <v>2468.172546505169</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.481669832124</v>
+        <v>2468.172546505169</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.481669832124</v>
+        <v>3341.830638616787</v>
       </c>
       <c r="O6" t="n">
-        <v>1193.526080325524</v>
+        <v>3497.14959360184</v>
       </c>
       <c r="P6" t="n">
-        <v>1755.231972814054</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>3950.865476204679</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>3791.523612391687</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>3594.172801529906</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>3380.46127452294</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>3167.228106259268</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>2990.902124398161</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>2831.500164761991</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.7903201544917</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C7" t="n">
-        <v>135.7903201544917</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.437399245089</v>
+        <v>1567.709933872883</v>
       </c>
       <c r="U7" t="n">
-        <v>1065.639251791214</v>
+        <v>1284.911786419008</v>
       </c>
       <c r="V7" t="n">
-        <v>1065.639251791214</v>
+        <v>1011.026041358529</v>
       </c>
       <c r="W7" t="n">
-        <v>786.569587300088</v>
+        <v>731.9563768674037</v>
       </c>
       <c r="X7" t="n">
-        <v>548.2257251597714</v>
+        <v>493.6125147270871</v>
       </c>
       <c r="Y7" t="n">
-        <v>323.4900265485361</v>
+        <v>268.8768161158518</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.956369536589</v>
+        <v>2226.216304634987</v>
       </c>
       <c r="C8" t="n">
-        <v>966.831778849859</v>
+        <v>1816.091713948257</v>
       </c>
       <c r="D8" t="n">
-        <v>562.3678489429195</v>
+        <v>1411.627784041318</v>
       </c>
       <c r="E8" t="n">
-        <v>148.0276334598162</v>
+        <v>997.2875685582145</v>
       </c>
       <c r="F8" t="n">
-        <v>63.27512171430095</v>
+        <v>576.2571565119021</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J8" t="n">
-        <v>188.0203049894718</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K8" t="n">
-        <v>726.1798060985113</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L8" t="n">
-        <v>1438.771205910749</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M8" t="n">
-        <v>2163.788321299022</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N8" t="n">
-        <v>2888.805436687295</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O8" t="n">
-        <v>2888.805436687295</v>
+        <v>3759.243946158316</v>
       </c>
       <c r="P8" t="n">
-        <v>2888.805436687295</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>3836.649002037229</v>
       </c>
       <c r="U8" t="n">
-        <v>2571.87452311782</v>
+        <v>3579.588510296739</v>
       </c>
       <c r="V8" t="n">
-        <v>2571.87452311782</v>
+        <v>3579.588510296739</v>
       </c>
       <c r="W8" t="n">
-        <v>2188.114222252988</v>
+        <v>3438.017555182434</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.114222252988</v>
+        <v>3037.374157351387</v>
       </c>
       <c r="Y8" t="n">
-        <v>1787.177549201078</v>
+        <v>2636.437484299477</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J9" t="n">
-        <v>251.4000992101705</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K9" t="n">
-        <v>251.4000992101705</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L9" t="n">
-        <v>912.4882711294587</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="M9" t="n">
-        <v>1637.505386517731</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="N9" t="n">
-        <v>1637.505386517731</v>
+        <v>1410.641458098724</v>
       </c>
       <c r="O9" t="n">
-        <v>1637.505386517731</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="P9" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>543.6238273457164</v>
+        <v>252.2704821600909</v>
       </c>
       <c r="C10" t="n">
-        <v>543.6238273457164</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D10" t="n">
-        <v>384.1291826686265</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E10" t="n">
-        <v>223.2183675369459</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T10" t="n">
-        <v>1587.986138268387</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U10" t="n">
-        <v>1587.986138268387</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V10" t="n">
-        <v>1314.100393207909</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W10" t="n">
-        <v>1194.403094491313</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X10" t="n">
-        <v>956.0592323509961</v>
+        <v>477.0061807713262</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.3235337397608</v>
+        <v>252.2704821600909</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1699.94641333933</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="C11" t="n">
-        <v>1699.94641333933</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="D11" t="n">
-        <v>1699.94641333933</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E11" t="n">
-        <v>1285.606197856226</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F11" t="n">
-        <v>864.5757858099139</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G11" t="n">
-        <v>455.8475017027461</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H11" t="n">
-        <v>144.9390043304641</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K11" t="n">
-        <v>123.1055953709714</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L11" t="n">
-        <v>835.6969951832094</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M11" t="n">
-        <v>1560.714110571482</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N11" t="n">
-        <v>2285.731225959755</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>4034.215172609714</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T11" t="n">
-        <v>2571.87452311782</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U11" t="n">
-        <v>2314.81403137733</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V11" t="n">
-        <v>1964.976476713811</v>
+        <v>3094.469880427321</v>
       </c>
       <c r="W11" t="n">
-        <v>1699.94641333933</v>
+        <v>2710.709579562489</v>
       </c>
       <c r="X11" t="n">
-        <v>1699.94641333933</v>
+        <v>2310.066181731442</v>
       </c>
       <c r="Y11" t="n">
-        <v>1699.94641333933</v>
+        <v>1909.129508679532</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J12" t="n">
-        <v>251.4000992101705</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K12" t="n">
-        <v>251.4000992101705</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L12" t="n">
-        <v>839.4134544636129</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="M12" t="n">
-        <v>839.4134544636129</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="N12" t="n">
-        <v>839.4134544636129</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="O12" t="n">
-        <v>1543.370545009507</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>242.0879248534879</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>242.0879248534879</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>242.0879248534879</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1316.185343999284</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>1033.387196545408</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>759.5014514849302</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>480.4317869938045</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>242.0879248534879</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>242.0879248534879</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1333.800530964582</v>
+        <v>2450.773039324342</v>
       </c>
       <c r="C14" t="n">
-        <v>923.6759402778517</v>
+        <v>2040.648448637613</v>
       </c>
       <c r="D14" t="n">
-        <v>519.2120103709123</v>
+        <v>1636.184518730673</v>
       </c>
       <c r="E14" t="n">
-        <v>519.2120103709123</v>
+        <v>1221.84430324757</v>
       </c>
       <c r="F14" t="n">
-        <v>98.1815983245998</v>
+        <v>800.8138912012572</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J14" t="n">
-        <v>312.7727131152915</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K14" t="n">
-        <v>312.7727131152915</v>
+        <v>282.2592718266466</v>
       </c>
       <c r="L14" t="n">
-        <v>1025.36411292753</v>
+        <v>994.8506716388846</v>
       </c>
       <c r="M14" t="n">
-        <v>1520.157464881917</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N14" t="n">
-        <v>2245.17458027019</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O14" t="n">
-        <v>2888.805436687295</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P14" t="n">
-        <v>2888.805436687295</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3836.649002037229</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>3579.588510296739</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>3229.75095563322</v>
       </c>
       <c r="W14" t="n">
-        <v>2545.601781512029</v>
+        <v>2860.994218988832</v>
       </c>
       <c r="X14" t="n">
-        <v>2144.958383680981</v>
+        <v>2860.994218988832</v>
       </c>
       <c r="Y14" t="n">
-        <v>1744.021710629071</v>
+        <v>2860.994218988832</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L15" t="n">
-        <v>719.6754135668255</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="M15" t="n">
-        <v>719.6754135668255</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1380.010227478839</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>1097.212080024963</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>823.3263349644849</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>544.2566704733592</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>305.9128083330427</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F17" t="n">
         <v>899.2322418529996</v>
@@ -5555,10 +5557,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3314.038978003258</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5603,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N18" t="n">
         <v>1435.775802995229</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.1261518932039</v>
+        <v>402.3457975622561</v>
       </c>
       <c r="C19" t="n">
-        <v>137.1261518932039</v>
+        <v>402.3457975622561</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1261518932039</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E19" t="n">
-        <v>137.1261518932039</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F19" t="n">
-        <v>137.1261518932039</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G19" t="n">
-        <v>137.1261518932039</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5701,22 +5703,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1197.373552216927</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>914.5754047630508</v>
       </c>
       <c r="V19" t="n">
-        <v>828.6312213896092</v>
+        <v>640.6896597025727</v>
       </c>
       <c r="W19" t="n">
-        <v>549.5615568984836</v>
+        <v>640.6896597025727</v>
       </c>
       <c r="X19" t="n">
-        <v>549.5615568984836</v>
+        <v>402.3457975622561</v>
       </c>
       <c r="Y19" t="n">
-        <v>324.8258582872483</v>
+        <v>402.3457975622561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C20" t="n">
         <v>2139.066799289355</v>
@@ -5792,10 +5794,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3314.038978003258</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W22" t="n">
-        <v>3371.129850050606</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X22" t="n">
-        <v>3132.785987910289</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>831.3433226195527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>899.2322418529996</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>212.9817385874103</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.0142945366232</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0142945366232</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1383.093855288175</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.093855288175</v>
+        <v>3726.079947519107</v>
       </c>
       <c r="W25" t="n">
-        <v>1383.093855288175</v>
+        <v>3726.079947519107</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.749993147859</v>
+        <v>3487.73608537879</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.0142945366232</v>
+        <v>3487.73608537879</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6239,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6263,13 +6265,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C27" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D27" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E27" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G27" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H27" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N27" t="n">
-        <v>1597.308950304478</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>4162.6298599211</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S27" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T27" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U27" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V27" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W27" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X27" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y27" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W28" t="n">
-        <v>1537.369875986873</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X28" t="n">
-        <v>1537.369875986873</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2128.160977929772</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>1718.036387243042</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.572457336103</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E29" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
         <v>899.2322418529996</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4552.827059799201</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4330.62057574606</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4073.56008400557</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3723.722529342051</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3339.962228477219</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>2939.318830646172</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2538.382157594262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6552,10 +6554,10 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1111.429368843485</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>940.3359964052015</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>780.8413517281115</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>619.930536596431</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>455.2994107070223</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0490196325657</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4415644380223</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.429368843485</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.429368843485</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>866.6187948158295</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>457.8905107086616</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>146.9820133363796</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6734,16 +6736,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>912.5960014402549</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>741.5026290019714</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>582.0079843248814</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>421.0971691932008</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>256.4660433037921</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>256.4660433037921</v>
       </c>
       <c r="H34" t="n">
         <v>209.5897435862967</v>
@@ -6883,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W34" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>1100.295707834299</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2452.075282119331</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2041.950691432601</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1637.486761525662</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1223.146546042558</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
         <v>812.8804791700727</v>
@@ -6971,16 +6973,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3663.876532666778</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3263.23313483573</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2862.29646178382</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C37" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D37" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E37" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V37" t="n">
-        <v>554.7454763291312</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W37" t="n">
-        <v>526.4475898552967</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X37" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y37" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C38" t="n">
-        <v>1734.602869382415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
         <v>1734.602869382415</v>
@@ -7172,7 +7174,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674168</v>
@@ -7254,19 +7256,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M39" t="n">
-        <v>754.331869609911</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N39" t="n">
-        <v>1627.989961721529</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.642594311473</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="X40" t="n">
-        <v>1384.298732171156</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1370.277254385804</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2117.27467387779</v>
+        <v>2450.773039324342</v>
       </c>
       <c r="C41" t="n">
-        <v>1707.15008319106</v>
+        <v>2040.648448637613</v>
       </c>
       <c r="D41" t="n">
-        <v>1302.686153284121</v>
+        <v>1636.184518730673</v>
       </c>
       <c r="E41" t="n">
-        <v>888.3459378010175</v>
+        <v>1221.84430324757</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>800.8138912012572</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>282.2592718266466</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>282.2592718266466</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>994.8506716388846</v>
       </c>
       <c r="M41" t="n">
-        <v>2034.355257957088</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N41" t="n">
-        <v>2285.731225959755</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O41" t="n">
-        <v>2929.36208237686</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3836.649002037229</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>3836.649002037229</v>
       </c>
       <c r="V41" t="n">
-        <v>2929.36208237686</v>
+        <v>3662.574289871789</v>
       </c>
       <c r="W41" t="n">
-        <v>2929.36208237686</v>
+        <v>3662.574289871789</v>
       </c>
       <c r="X41" t="n">
-        <v>2928.432526594189</v>
+        <v>3261.930892040742</v>
       </c>
       <c r="Y41" t="n">
-        <v>2527.495853542279</v>
+        <v>2860.994218988832</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>550.0511229147953</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>550.0511229147953</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.621472424083</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>394.3117399752294</v>
+        <v>904.5574589327268</v>
       </c>
       <c r="C43" t="n">
-        <v>223.2183675369459</v>
+        <v>733.4640864944433</v>
       </c>
       <c r="D43" t="n">
-        <v>223.2183675369459</v>
+        <v>573.9694418173533</v>
       </c>
       <c r="E43" t="n">
-        <v>223.2183675369459</v>
+        <v>413.0586266856727</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>248.427500796264</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R43" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S43" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T43" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="U43" t="n">
-        <v>1219.915272489911</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="V43" t="n">
-        <v>1219.915272489911</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="W43" t="n">
-        <v>940.8456079987855</v>
+        <v>1331.506341851532</v>
       </c>
       <c r="X43" t="n">
-        <v>806.7471449805091</v>
+        <v>1093.162479711215</v>
       </c>
       <c r="Y43" t="n">
-        <v>582.0114463692738</v>
+        <v>1092.257165326771</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>941.4589640181928</v>
+        <v>2139.86454195206</v>
       </c>
       <c r="C44" t="n">
-        <v>531.3343733314629</v>
+        <v>1729.739951265331</v>
       </c>
       <c r="D44" t="n">
-        <v>126.8704434245234</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="E44" t="n">
-        <v>58.5872416475372</v>
+        <v>910.9358058752877</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K44" t="n">
-        <v>596.7467427565767</v>
+        <v>282.2592718266466</v>
       </c>
       <c r="L44" t="n">
-        <v>1309.338142568815</v>
+        <v>994.8506716388846</v>
       </c>
       <c r="M44" t="n">
-        <v>1309.338142568815</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N44" t="n">
-        <v>2034.355257957088</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O44" t="n">
-        <v>2677.986114374193</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P44" t="n">
-        <v>2677.986114374193</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T44" t="n">
-        <v>2794.081007170961</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U44" t="n">
-        <v>2537.020515430471</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V44" t="n">
-        <v>2537.020515430471</v>
+        <v>3094.469880427321</v>
       </c>
       <c r="W44" t="n">
-        <v>2153.26021456564</v>
+        <v>2951.02239466846</v>
       </c>
       <c r="X44" t="n">
-        <v>1752.616816734592</v>
+        <v>2951.02239466846</v>
       </c>
       <c r="Y44" t="n">
-        <v>1351.680143682682</v>
+        <v>2550.08572161655</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L45" t="n">
-        <v>655.0422067214914</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="M45" t="n">
-        <v>1380.059322109764</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="N45" t="n">
-        <v>2105.076437498037</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>864.3246549785433</v>
+        <v>3618.790439770657</v>
       </c>
       <c r="C46" t="n">
-        <v>693.2312825402598</v>
+        <v>3447.697067332374</v>
       </c>
       <c r="D46" t="n">
-        <v>533.7366378631698</v>
+        <v>3288.202422655284</v>
       </c>
       <c r="E46" t="n">
-        <v>372.8258227314893</v>
+        <v>3127.291607523603</v>
       </c>
       <c r="F46" t="n">
-        <v>208.1946968420806</v>
+        <v>2962.660481634195</v>
       </c>
       <c r="G46" t="n">
-        <v>208.1946968420806</v>
+        <v>2795.410090559738</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>2645.802635365194</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>2529.456589469521</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>2543.539138874731</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>2698.091466596969</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>2957.988566877029</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>3247.252623317523</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>3528.091405711773</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>3787.652016038247</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>3993.327456287859</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>4031.225844775937</v>
       </c>
       <c r="S46" t="n">
-        <v>1401.594370148297</v>
+        <v>4031.225844775937</v>
       </c>
       <c r="T46" t="n">
-        <v>1162.045631125</v>
+        <v>4031.225844775937</v>
       </c>
       <c r="U46" t="n">
-        <v>1162.045631125</v>
+        <v>4031.225844775937</v>
       </c>
       <c r="V46" t="n">
-        <v>888.1598860645215</v>
+        <v>4031.225844775937</v>
       </c>
       <c r="W46" t="n">
-        <v>888.1598860645215</v>
+        <v>4031.225844775937</v>
       </c>
       <c r="X46" t="n">
-        <v>888.1598860645215</v>
+        <v>4031.225844775937</v>
       </c>
       <c r="Y46" t="n">
-        <v>888.1598860645215</v>
+        <v>3806.490146164702</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7987,19 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>299.5251275576935</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>643.1706503868309</v>
+        <v>395.5690244730517</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>204.0640593554641</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
@@ -8222,19 +8224,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>280.2152552851256</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8298,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>75.97815626606008</v>
+        <v>214.6393123182355</v>
       </c>
       <c r="P6" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>204.0640593554641</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8459,22 +8461,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>396.2872824041708</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>214.6393123182359</v>
       </c>
       <c r="P9" t="n">
-        <v>173.1753787364626</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8690,25 +8692,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>114.9230099351687</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8769,10 +8771,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>650.0674079052354</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8781,13 +8783,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>292.2496847286102</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>593.0814890574372</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9006,25 +9008,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>743.5567912259809</v>
       </c>
       <c r="N15" t="n">
-        <v>741.5205988334645</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,10 +9251,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N18" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9717,22 +9719,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>176.7732988419765</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9957,7 +9959,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
@@ -9966,13 +9968,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>205.4824228069005</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10200,13 +10202,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>706.040592805458</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>424.7983178153489</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10902,22 +10904,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>574.6635313430244</v>
+        <v>245.6302329415199</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>276.4368863887011</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>346.8274099512328</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>529.7246381472005</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11297,25 +11299,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>292.2496847286102</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>302.9826148164273</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>658.5942865118129</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>221.3916728745719</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>117.5429351154468</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23424,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>30.12648705447947</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23501,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>365.4425881558041</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23546,22 +23548,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>14.85352857823881</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>45.84716204233382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23905,7 +23907,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>104.6677509820427</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>85.08474153970712</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>45.5568195736796</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>45.84716204233382</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24136,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>46.96074852400506</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>55.35263051300589</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24212,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>90.55518220668422</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>130.4742591606074</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24503,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>36.3651580272259</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.06664624006493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24683,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>70.43669735679158</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.28731256679831</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>96.14494677818664</v>
       </c>
     </row>
     <row r="33">
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>101.7038439222774</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25141,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.1745055375995</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25163,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>10.65670172208848</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>248.2640602371182</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>42.06483528720065</v>
+        <v>36.36515802722619</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>57.066646240065</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25612,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25679,19 +25681,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>174.0052140730986</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>395.7167036278929</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -25840,7 +25842,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>103.2029451308199</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>221.5920803845232</v>
       </c>
     </row>
     <row r="44">
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>342.596443569056</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25916,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>237.9096869549106</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>162.2258305549855</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>57.0666462400659</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26089,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>810802.2869296741</v>
+        <v>804174.6973001434</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>810802.2869296741</v>
+        <v>819702.2385899654</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>810802.2869296741</v>
+        <v>819702.2385899654</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568688.2050163347</v>
+        <v>680081.5574880809</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568688.2050163347</v>
+        <v>680081.557488081</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>739583.3519351474</v>
+        <v>739583.3519351475</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739583.3519351473</v>
+        <v>739583.3519351474</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739583.3519351473</v>
+        <v>739583.3519351474</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739583.3519351473</v>
+        <v>739583.3519351474</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739583.3519351474</v>
+        <v>739583.3519351473</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568688.2050163348</v>
+        <v>680081.5574880809</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568688.2050163343</v>
+        <v>680081.5574880809</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>374629.503974651</v>
       </c>
       <c r="D2" t="n">
-        <v>374629.5039746509</v>
+        <v>374629.5039746511</v>
       </c>
       <c r="E2" t="n">
-        <v>256148.1447404637</v>
+        <v>306304.4898184097</v>
       </c>
       <c r="F2" t="n">
-        <v>256148.1447404637</v>
+        <v>306304.4898184097</v>
       </c>
       <c r="G2" t="n">
         <v>333095.967665358</v>
       </c>
       <c r="H2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="I2" t="n">
         <v>333095.967665358</v>
       </c>
       <c r="J2" t="n">
+        <v>333095.967665358</v>
+      </c>
+      <c r="K2" t="n">
+        <v>333095.967665358</v>
+      </c>
+      <c r="L2" t="n">
         <v>333095.9676653582</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>333095.9676653582</v>
-      </c>
-      <c r="L2" t="n">
-        <v>333095.967665358</v>
-      </c>
-      <c r="M2" t="n">
-        <v>333095.9676653581</v>
       </c>
       <c r="N2" t="n">
         <v>333095.9676653579</v>
       </c>
       <c r="O2" t="n">
-        <v>256148.1447404637</v>
+        <v>306304.4898184096</v>
       </c>
       <c r="P2" t="n">
-        <v>256148.1447404637</v>
+        <v>306304.4898184097</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>159160.8707514664</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>41340.88454290959</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126792.4227070339</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163397.5044008658</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
-        <v>163397.5044008658</v>
+        <v>122643.8415946218</v>
       </c>
       <c r="D4" t="n">
-        <v>163397.5044008658</v>
+        <v>122643.8415946218</v>
       </c>
       <c r="E4" t="n">
-        <v>45788.35845401311</v>
+        <v>54821.80938920873</v>
       </c>
       <c r="F4" t="n">
-        <v>45788.35845401311</v>
+        <v>54821.80938920873</v>
       </c>
       <c r="G4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="H4" t="n">
         <v>59647.11115782198</v>
@@ -26445,19 +26447,19 @@
         <v>59647.11115782198</v>
       </c>
       <c r="L4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="M4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782199</v>
       </c>
       <c r="N4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>45788.35845401311</v>
+        <v>54821.80938920873</v>
       </c>
       <c r="P4" t="n">
-        <v>45788.3584540131</v>
+        <v>54821.80938920873</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112346.0563614382</v>
+        <v>-59440.89225275364</v>
       </c>
       <c r="C6" t="n">
-        <v>133078.0959216569</v>
+        <v>-2497.411760010815</v>
       </c>
       <c r="D6" t="n">
-        <v>133078.0959216568</v>
+        <v>156663.4589914556</v>
       </c>
       <c r="E6" t="n">
-        <v>165833.4826343223</v>
+        <v>189788.0770406274</v>
       </c>
       <c r="F6" t="n">
-        <v>165833.4826343223</v>
+        <v>189788.0770406273</v>
       </c>
       <c r="G6" t="n">
-        <v>83848.46183054878</v>
+        <v>161242.7617197532</v>
       </c>
       <c r="H6" t="n">
-        <v>202583.6462626628</v>
+        <v>202583.6462626629</v>
       </c>
       <c r="I6" t="n">
         <v>202583.6462626627</v>
       </c>
       <c r="J6" t="n">
-        <v>10971.14309231004</v>
+        <v>65988.84545676777</v>
       </c>
       <c r="K6" t="n">
-        <v>202583.6462626629</v>
+        <v>75791.22355562885</v>
       </c>
       <c r="L6" t="n">
-        <v>202583.6462626627</v>
+        <v>202583.646262663</v>
       </c>
       <c r="M6" t="n">
         <v>202583.6462626628</v>
       </c>
       <c r="N6" t="n">
-        <v>202583.6462626626</v>
+        <v>202583.6462626627</v>
       </c>
       <c r="O6" t="n">
-        <v>165833.4826343223</v>
+        <v>189788.0770406272</v>
       </c>
       <c r="P6" t="n">
-        <v>165833.4826343224</v>
+        <v>189788.0770406273</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18.19522188379983</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>292.6802128521345</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27442,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27546,13 +27548,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>61.17686450589663</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27585,7 +27587,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>119.0440200142486</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>133.7441872377578</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>245.5605898280508</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>81.46865050843414</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27825,13 +27827,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>332.9151212977892</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>239.7674522930212</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28062,19 +28064,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.7786421167837</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>178.2755692717849</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34705,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>209.4913231585415</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>585.6063666484134</v>
+        <v>338.0047407346343</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>130.7404680221562</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
@@ -34942,19 +34944,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>186.9250308280801</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35018,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>18.22667726606008</v>
+        <v>156.8878333182355</v>
       </c>
       <c r="P6" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>130.7404680221562</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35179,22 +35181,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>302.6379191232867</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>156.8878333182359</v>
       </c>
       <c r="P9" t="n">
-        <v>118.9157437336588</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>24.88920553601663</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>593.9528840943864</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>203.1132950553931</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>499.7912646003917</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="N15" t="n">
-        <v>688.3272054397146</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N18" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>120.9475160573611</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
@@ -36686,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>151.2227878040968</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,13 +36922,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>648.289113805458</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>516.9120523430244</v>
+        <v>187.87875394152</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>203.1132950553931</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>253.9151191946135</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>203.1132950553931</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.9488104172752</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>602.4797627009639</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1050610.37011791</v>
+        <v>1049186.672386636</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5435918.08814848</v>
+        <v>5435918.088148477</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2632905.856953525</v>
+        <v>2632905.856953524</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387.9237459840447</v>
+        <v>80.12433358548559</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -676,7 +676,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>41.24458363092484</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -882,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>116.9164035046649</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>239.9276552280467</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>100.7785892888333</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>42.43741174507654</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>91.04473440253321</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1144,16 +1144,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>299.381613646192</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>140.1552455631619</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>57.68485424712848</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>184.7272949932727</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>191.9086089242962</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.0267645785854</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>72.07985206319032</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>365.0691692779443</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751807</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1852,10 +1852,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>384.5327953590509</v>
+        <v>347.6353852893853</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1906,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>152.0685100933578</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2064,7 +2064,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>147.4466302442449</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2083,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>360.466525206183</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>35.42114665146753</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>116.0240661065096</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>373.736032213064</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2535,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>140.6726284492659</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>343.5575398289572</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>342.8613317032455</v>
       </c>
     </row>
     <row r="27">
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>368.1319780410717</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2851,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>123.2715627317515</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2955,22 +2955,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>200.7665139574148</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>300.7823595432042</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3195,16 +3195,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>46.40753672032049</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3243,19 +3243,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>62.34890069029359</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>49.12308702887171</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3277,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>114.142376409391</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3483,16 +3483,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>369.6581867526364</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>22.92681701721074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3754,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>167.021656779839</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>172.3339650437855</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>77.72590661309995</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.8962612405997401</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>313.1290278934322</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4039,13 +4039,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>142.0130109012725</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>73.4089840899711</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -4155,7 +4155,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>27.35334490128844</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1696.412113819451</v>
+        <v>2007.320611191733</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.287523132721</v>
+        <v>1597.196020505003</v>
       </c>
       <c r="D2" t="n">
-        <v>881.8235932257816</v>
+        <v>1192.732090598063</v>
       </c>
       <c r="E2" t="n">
-        <v>467.4833777426783</v>
+        <v>778.3918751149602</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4406,28 +4406,28 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.3725408241454</v>
+        <v>83.42628121639481</v>
       </c>
       <c r="C4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>588.5395825927103</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>309.4699181015847</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>191.3725408241454</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.3725408241454</v>
+        <v>271.1259876104392</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2226.216304634987</v>
+        <v>1978.175304808673</v>
       </c>
       <c r="C5" t="n">
-        <v>1816.091713948257</v>
+        <v>1568.050714121943</v>
       </c>
       <c r="D5" t="n">
-        <v>1411.627784041318</v>
+        <v>1163.586784215004</v>
       </c>
       <c r="E5" t="n">
-        <v>997.2875685582145</v>
+        <v>749.2465687319004</v>
       </c>
       <c r="F5" t="n">
-        <v>576.2571565119021</v>
+        <v>328.216156685588</v>
       </c>
       <c r="G5" t="n">
-        <v>167.5288724047342</v>
+        <v>323.5282766188242</v>
       </c>
       <c r="H5" t="n">
-        <v>167.5288724047342</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I5" t="n">
         <v>81.1771097218074</v>
@@ -4576,19 +4576,19 @@
         <v>1586.113482110839</v>
       </c>
       <c r="M5" t="n">
-        <v>1771.169262630639</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N5" t="n">
-        <v>2524.350279269257</v>
+        <v>3094.063622877973</v>
       </c>
       <c r="O5" t="n">
-        <v>3167.981135686362</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="P5" t="n">
-        <v>3697.137833605513</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="Q5" t="n">
-        <v>4018.298840400805</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R5" t="n">
         <v>4058.85548609037</v>
@@ -4603,16 +4603,16 @@
         <v>3923.574410884471</v>
       </c>
       <c r="V5" t="n">
-        <v>3821.777856047266</v>
+        <v>3573.736856220952</v>
       </c>
       <c r="W5" t="n">
-        <v>3438.017555182434</v>
+        <v>3189.97655535612</v>
       </c>
       <c r="X5" t="n">
-        <v>3037.374157351387</v>
+        <v>2789.333157525073</v>
       </c>
       <c r="Y5" t="n">
-        <v>2636.437484299477</v>
+        <v>2388.396484473163</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2691.197132126405</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C6" t="n">
-        <v>2557.20206087535</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D6" t="n">
-        <v>2440.304903094743</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E6" t="n">
-        <v>2319.812087087071</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F6" t="n">
-        <v>2210.852207269576</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G6" t="n">
-        <v>2103.862094583914</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H6" t="n">
-        <v>2033.11488161963</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I6" t="n">
-        <v>2012.366290239871</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J6" t="n">
-        <v>2012.366290239871</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K6" t="n">
-        <v>2468.172546505169</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L6" t="n">
-        <v>2468.172546505169</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="M6" t="n">
-        <v>2468.172546505169</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="N6" t="n">
-        <v>3341.830638616787</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="O6" t="n">
-        <v>3497.14959360184</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P6" t="n">
-        <v>4058.85548609037</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q6" t="n">
-        <v>4058.85548609037</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R6" t="n">
-        <v>4058.85548609037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S6" t="n">
-        <v>3950.865476204679</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T6" t="n">
-        <v>3791.523612391687</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U6" t="n">
-        <v>3594.172801529906</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V6" t="n">
-        <v>3380.46127452294</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W6" t="n">
-        <v>3167.228106259268</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X6" t="n">
-        <v>2990.902124398161</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y6" t="n">
-        <v>2831.500164761991</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.1771097218074</v>
+        <v>1020.903504828401</v>
       </c>
       <c r="C7" t="n">
-        <v>81.1771097218074</v>
+        <v>849.8101323901171</v>
       </c>
       <c r="D7" t="n">
-        <v>81.1771097218074</v>
+        <v>690.3154877130271</v>
       </c>
       <c r="E7" t="n">
-        <v>81.1771097218074</v>
+        <v>529.4046725813466</v>
       </c>
       <c r="F7" t="n">
-        <v>81.1771097218074</v>
+        <v>364.7735466919378</v>
       </c>
       <c r="G7" t="n">
-        <v>81.1771097218074</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="H7" t="n">
-        <v>81.1771097218074</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I7" t="n">
         <v>81.1771097218074</v>
@@ -4749,28 +4749,28 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1610.576006342658</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S7" t="n">
-        <v>1610.576006342658</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="T7" t="n">
-        <v>1567.709933872883</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="U7" t="n">
-        <v>1284.911786419008</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="V7" t="n">
-        <v>1011.026041358529</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="W7" t="n">
-        <v>731.9563768674037</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="X7" t="n">
-        <v>493.6125147270871</v>
+        <v>1433.33890983368</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.8768161158518</v>
+        <v>1208.603211222445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2226.216304634987</v>
+        <v>1634.189404220941</v>
       </c>
       <c r="C8" t="n">
-        <v>1816.091713948257</v>
+        <v>1224.064813534211</v>
       </c>
       <c r="D8" t="n">
-        <v>1411.627784041318</v>
+        <v>819.6008836272717</v>
       </c>
       <c r="E8" t="n">
-        <v>997.2875685582145</v>
+        <v>405.2606681441684</v>
       </c>
       <c r="F8" t="n">
-        <v>576.2571565119021</v>
+        <v>388.27066013826</v>
       </c>
       <c r="G8" t="n">
-        <v>167.5288724047342</v>
+        <v>383.5827800714963</v>
       </c>
       <c r="H8" t="n">
-        <v>167.5288724047342</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I8" t="n">
         <v>81.1771097218074</v>
       </c>
       <c r="J8" t="n">
-        <v>335.3625811895617</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K8" t="n">
-        <v>873.5220822986012</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L8" t="n">
-        <v>1586.113482110839</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M8" t="n">
-        <v>2362.432073102593</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N8" t="n">
-        <v>3115.613089741211</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O8" t="n">
-        <v>3759.243946158316</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P8" t="n">
-        <v>4058.85548609037</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="Q8" t="n">
         <v>4058.85548609037</v>
@@ -4840,16 +4840,16 @@
         <v>3579.588510296739</v>
       </c>
       <c r="V8" t="n">
-        <v>3579.588510296739</v>
+        <v>3229.75095563322</v>
       </c>
       <c r="W8" t="n">
-        <v>3438.017555182434</v>
+        <v>2845.990654768388</v>
       </c>
       <c r="X8" t="n">
-        <v>3037.374157351387</v>
+        <v>2445.347256937341</v>
       </c>
       <c r="Y8" t="n">
-        <v>2636.437484299477</v>
+        <v>2044.410583885431</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J9" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K9" t="n">
-        <v>536.9833659871061</v>
+        <v>342.4578562881761</v>
       </c>
       <c r="L9" t="n">
-        <v>536.9833659871061</v>
+        <v>342.4578562881761</v>
       </c>
       <c r="M9" t="n">
-        <v>536.9833659871061</v>
+        <v>342.4578562881761</v>
       </c>
       <c r="N9" t="n">
-        <v>1410.641458098724</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="O9" t="n">
-        <v>1565.960413083777</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="P9" t="n">
-        <v>2127.666305572307</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q9" t="n">
         <v>2127.666305572307</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.2704821600909</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="C10" t="n">
-        <v>81.1771097218074</v>
+        <v>999.4175875846604</v>
       </c>
       <c r="D10" t="n">
-        <v>81.1771097218074</v>
+        <v>839.9229429075704</v>
       </c>
       <c r="E10" t="n">
-        <v>81.1771097218074</v>
+        <v>679.0121277758899</v>
       </c>
       <c r="F10" t="n">
-        <v>81.1771097218074</v>
+        <v>514.3810018864812</v>
       </c>
       <c r="G10" t="n">
-        <v>81.1771097218074</v>
+        <v>347.1306108120246</v>
       </c>
       <c r="H10" t="n">
-        <v>81.1771097218074</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I10" t="n">
         <v>81.1771097218074</v>
@@ -4986,28 +4986,28 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R10" t="n">
-        <v>1610.576006342658</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="S10" t="n">
-        <v>1610.576006342658</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="T10" t="n">
-        <v>1371.02726731936</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="U10" t="n">
-        <v>1088.229119865484</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="V10" t="n">
-        <v>814.3433748050059</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="W10" t="n">
-        <v>535.2737103138802</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="X10" t="n">
-        <v>477.0061807713262</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.2704821600909</v>
+        <v>1358.210666416988</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1722.5362814136</v>
+        <v>2046.309109417403</v>
       </c>
       <c r="C11" t="n">
-        <v>1722.5362814136</v>
+        <v>1636.184518730673</v>
       </c>
       <c r="D11" t="n">
-        <v>1722.5362814136</v>
+        <v>1636.184518730673</v>
       </c>
       <c r="E11" t="n">
-        <v>1308.196065930496</v>
+        <v>1221.84430324757</v>
       </c>
       <c r="F11" t="n">
-        <v>887.1656538841841</v>
+        <v>800.8138912012572</v>
       </c>
       <c r="G11" t="n">
-        <v>478.4373697770162</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="H11" t="n">
-        <v>167.5288724047342</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I11" t="n">
         <v>81.1771097218074</v>
       </c>
       <c r="J11" t="n">
-        <v>81.1771097218074</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K11" t="n">
-        <v>619.3366108308469</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L11" t="n">
-        <v>1331.928010643085</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M11" t="n">
-        <v>2108.246601634839</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N11" t="n">
-        <v>2861.427618273457</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O11" t="n">
-        <v>3505.058474690562</v>
+        <v>3208.537781375926</v>
       </c>
       <c r="P11" t="n">
-        <v>4034.215172609714</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="Q11" t="n">
         <v>4058.85548609037</v>
@@ -5068,25 +5068,25 @@
         <v>4058.85548609037</v>
       </c>
       <c r="S11" t="n">
-        <v>3923.574410884471</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T11" t="n">
-        <v>3701.36792683133</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U11" t="n">
-        <v>3444.30743509084</v>
+        <v>3801.79499434988</v>
       </c>
       <c r="V11" t="n">
-        <v>3094.469880427321</v>
+        <v>3451.957439686361</v>
       </c>
       <c r="W11" t="n">
-        <v>2710.709579562489</v>
+        <v>3258.11035996485</v>
       </c>
       <c r="X11" t="n">
-        <v>2310.066181731442</v>
+        <v>2857.466962133802</v>
       </c>
       <c r="Y11" t="n">
-        <v>1909.129508679532</v>
+        <v>2456.530289081892</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>729.7962235497394</v>
       </c>
       <c r="L12" t="n">
-        <v>1216.115948399794</v>
+        <v>1284.689224877741</v>
       </c>
       <c r="M12" t="n">
-        <v>1216.115948399794</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="N12" t="n">
-        <v>1216.115948399794</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="O12" t="n">
-        <v>1216.115948399794</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P12" t="n">
-        <v>1777.821840888324</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q12" t="n">
         <v>2127.666305572307</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.0879248534879</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C13" t="n">
-        <v>242.0879248534879</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D13" t="n">
-        <v>242.0879248534879</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E13" t="n">
         <v>81.1771097218074</v>
@@ -5223,28 +5223,28 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R13" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S13" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T13" t="n">
-        <v>1316.185343999284</v>
+        <v>1380.010227478839</v>
       </c>
       <c r="U13" t="n">
-        <v>1033.387196545408</v>
+        <v>1097.212080024963</v>
       </c>
       <c r="V13" t="n">
-        <v>759.5014514849302</v>
+        <v>823.3263349644849</v>
       </c>
       <c r="W13" t="n">
-        <v>480.4317869938045</v>
+        <v>544.2566704733592</v>
       </c>
       <c r="X13" t="n">
-        <v>242.0879248534879</v>
+        <v>305.9128083330427</v>
       </c>
       <c r="Y13" t="n">
-        <v>242.0879248534879</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2450.773039324342</v>
+        <v>2040.648448637613</v>
       </c>
       <c r="C14" t="n">
         <v>2040.648448637613</v>
@@ -5281,25 +5281,25 @@
         <v>81.1771097218074</v>
       </c>
       <c r="K14" t="n">
-        <v>282.2592718266466</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L14" t="n">
-        <v>994.8506716388846</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M14" t="n">
-        <v>1771.169262630639</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N14" t="n">
-        <v>2524.350279269257</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O14" t="n">
-        <v>3167.981135686362</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P14" t="n">
-        <v>3697.137833605513</v>
+        <v>4034.215172609714</v>
       </c>
       <c r="Q14" t="n">
-        <v>4018.298840400805</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R14" t="n">
         <v>4058.85548609037</v>
@@ -5308,22 +5308,22 @@
         <v>4058.85548609037</v>
       </c>
       <c r="T14" t="n">
-        <v>3836.649002037229</v>
+        <v>3986.04755471341</v>
       </c>
       <c r="U14" t="n">
-        <v>3579.588510296739</v>
+        <v>3986.04755471341</v>
       </c>
       <c r="V14" t="n">
-        <v>3229.75095563322</v>
+        <v>3636.210000049891</v>
       </c>
       <c r="W14" t="n">
-        <v>2860.994218988832</v>
+        <v>3252.449699185059</v>
       </c>
       <c r="X14" t="n">
-        <v>2860.994218988832</v>
+        <v>2851.806301354012</v>
       </c>
       <c r="Y14" t="n">
-        <v>2860.994218988832</v>
+        <v>2450.869628302102</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J15" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K15" t="n">
-        <v>536.9833659871061</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="L15" t="n">
-        <v>536.9833659871061</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="M15" t="n">
-        <v>1216.115948399794</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="N15" t="n">
-        <v>1216.115948399794</v>
+        <v>512.1588578538997</v>
       </c>
       <c r="O15" t="n">
         <v>1216.115948399794</v>
@@ -5466,19 +5466,19 @@
         <v>1610.576006342658</v>
       </c>
       <c r="T16" t="n">
-        <v>1380.010227478839</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U16" t="n">
-        <v>1097.212080024963</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V16" t="n">
-        <v>823.3263349644849</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W16" t="n">
-        <v>544.2566704733592</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X16" t="n">
-        <v>305.9128083330427</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y16" t="n">
         <v>81.1771097218074</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E17" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
         <v>899.2322418529996</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5554,13 +5554,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.3457975622561</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C19" t="n">
-        <v>402.3457975622561</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1197.373552216927</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>914.5754047630508</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>640.6896597025727</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W19" t="n">
-        <v>640.6896597025727</v>
+        <v>491.0822045080294</v>
       </c>
       <c r="X19" t="n">
-        <v>402.3457975622561</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="Y19" t="n">
-        <v>402.3457975622561</v>
+        <v>252.7383423677128</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2503.174400507722</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5788,16 +5788,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.395580172211</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O21" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>643.6436162255084</v>
+        <v>755.7132317698615</v>
       </c>
       <c r="C22" t="n">
-        <v>643.6436162255084</v>
+        <v>584.619859331578</v>
       </c>
       <c r="D22" t="n">
-        <v>643.6436162255084</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E22" t="n">
-        <v>643.6436162255084</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.687184759869</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="X22" t="n">
-        <v>831.3433226195527</v>
+        <v>1016.22786639268</v>
       </c>
       <c r="Y22" t="n">
-        <v>831.3433226195527</v>
+        <v>791.4921677814449</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>212.9817385874103</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>874.0699105066985</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>874.0699105066985</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N24" t="n">
-        <v>874.0699105066985</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O24" t="n">
-        <v>1578.027001052593</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>3726.079947519107</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>3726.079947519107</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>3487.73608537879</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>3487.73608537879</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W26" t="n">
-        <v>3350.771460859042</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X26" t="n">
-        <v>2950.128063027995</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y26" t="n">
-        <v>2549.191389976085</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C27" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D27" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E27" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H27" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>3458.672769375206</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>3458.672769375206</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>4162.6298599211</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
-        <v>4312.340419847156</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S27" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T27" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U27" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V27" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W27" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X27" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y27" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063151</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>3868.173511609275</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>3594.287766548796</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>3315.218102057671</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>3132.785987910289</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1692.113136769081</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6733,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V32" t="n">
-        <v>4047.636833531609</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W32" t="n">
-        <v>3663.876532666778</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X32" t="n">
-        <v>3263.23313483573</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="33">
@@ -6785,22 +6785,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>912.5960014402549</v>
+        <v>857.0356069706702</v>
       </c>
       <c r="C34" t="n">
-        <v>741.5026290019714</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="D34" t="n">
-        <v>582.0079843248814</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E34" t="n">
-        <v>421.0971691932008</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F34" t="n">
-        <v>256.4660433037921</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>256.4660433037921</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
         <v>209.5897435862967</v>
@@ -6891,19 +6891,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1100.295707834299</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.295707834299</v>
+        <v>1320.115167722222</v>
       </c>
       <c r="W34" t="n">
-        <v>1100.295707834299</v>
+        <v>1320.115167722222</v>
       </c>
       <c r="X34" t="n">
-        <v>1100.295707834299</v>
+        <v>1081.771305581905</v>
       </c>
       <c r="Y34" t="n">
-        <v>1100.295707834299</v>
+        <v>857.0356069706702</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
         <v>812.8804791700727</v>
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3132.785987910289</v>
+        <v>358.1464825916217</v>
       </c>
       <c r="C37" t="n">
-        <v>3132.785987910289</v>
+        <v>358.1464825916217</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>358.1464825916217</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>358.1464825916217</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>3594.287766548796</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W37" t="n">
-        <v>3315.218102057671</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X37" t="n">
-        <v>3132.785987910289</v>
+        <v>582.8821812028571</v>
       </c>
       <c r="Y37" t="n">
-        <v>3132.785987910289</v>
+        <v>358.1464825916217</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2512.458907120301</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>116.4020987181084</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7177,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7213,13 +7213,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>1392.027034650488</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1392.027034650488</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4634.555243216706</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4634.555243216706</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4634.555243216706</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>4634.555243216706</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V40" t="n">
-        <v>4634.555243216706</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W40" t="n">
-        <v>4634.555243216706</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X40" t="n">
-        <v>4634.555243216706</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y40" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2450.773039324342</v>
+        <v>1899.845002066952</v>
       </c>
       <c r="C41" t="n">
-        <v>2040.648448637613</v>
+        <v>1489.720411380222</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.184518730673</v>
+        <v>1085.256481473283</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.84430324757</v>
+        <v>670.9162659901795</v>
       </c>
       <c r="F41" t="n">
-        <v>800.8138912012572</v>
+        <v>249.885853943867</v>
       </c>
       <c r="G41" t="n">
-        <v>392.0856070940894</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H41" t="n">
         <v>81.1771097218074</v>
@@ -7411,52 +7411,52 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J41" t="n">
-        <v>282.2592718266466</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K41" t="n">
-        <v>282.2592718266466</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L41" t="n">
-        <v>994.8506716388846</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M41" t="n">
-        <v>1771.169262630639</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N41" t="n">
-        <v>2524.350279269257</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O41" t="n">
-        <v>3167.981135686362</v>
+        <v>3759.243946158316</v>
       </c>
       <c r="P41" t="n">
-        <v>3697.137833605513</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="Q41" t="n">
-        <v>4018.298840400805</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R41" t="n">
         <v>4058.85548609037</v>
       </c>
       <c r="S41" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T41" t="n">
-        <v>3836.649002037229</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U41" t="n">
-        <v>3836.649002037229</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V41" t="n">
-        <v>3662.574289871789</v>
+        <v>3094.469880427321</v>
       </c>
       <c r="W41" t="n">
-        <v>3662.574289871789</v>
+        <v>2710.709579562489</v>
       </c>
       <c r="X41" t="n">
-        <v>3261.930892040742</v>
+        <v>2310.066181731442</v>
       </c>
       <c r="Y41" t="n">
-        <v>2860.994218988832</v>
+        <v>2310.066181731442</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J42" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K42" t="n">
-        <v>81.1771097218074</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L42" t="n">
-        <v>550.0511229147953</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="M42" t="n">
-        <v>550.0511229147953</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="N42" t="n">
-        <v>1423.709215026413</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="O42" t="n">
-        <v>2127.666305572307</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="P42" t="n">
-        <v>2127.666305572307</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q42" t="n">
         <v>2127.666305572307</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>904.5574589327268</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C43" t="n">
-        <v>733.4640864944433</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D43" t="n">
-        <v>573.9694418173533</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E43" t="n">
-        <v>413.0586266856727</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F43" t="n">
-        <v>248.427500796264</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G43" t="n">
         <v>81.1771097218074</v>
@@ -7596,25 +7596,25 @@
         <v>1610.576006342658</v>
       </c>
       <c r="S43" t="n">
-        <v>1610.576006342658</v>
+        <v>1424.184238222568</v>
       </c>
       <c r="T43" t="n">
-        <v>1610.576006342658</v>
+        <v>1184.63549919927</v>
       </c>
       <c r="U43" t="n">
-        <v>1610.576006342658</v>
+        <v>901.837351745394</v>
       </c>
       <c r="V43" t="n">
-        <v>1610.576006342658</v>
+        <v>901.837351745394</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.506341851532</v>
+        <v>622.7676872542684</v>
       </c>
       <c r="X43" t="n">
-        <v>1093.162479711215</v>
+        <v>384.4238251139518</v>
       </c>
       <c r="Y43" t="n">
-        <v>1092.257165326771</v>
+        <v>159.6881265027164</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2139.86454195206</v>
+        <v>2035.126077272851</v>
       </c>
       <c r="C44" t="n">
-        <v>1729.739951265331</v>
+        <v>1625.001486586121</v>
       </c>
       <c r="D44" t="n">
-        <v>1325.276021358391</v>
+        <v>1220.537556679182</v>
       </c>
       <c r="E44" t="n">
-        <v>910.9358058752877</v>
+        <v>806.1973411960785</v>
       </c>
       <c r="F44" t="n">
         <v>489.9053938289752</v>
@@ -7651,49 +7651,49 @@
         <v>81.1771097218074</v>
       </c>
       <c r="K44" t="n">
-        <v>282.2592718266466</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L44" t="n">
-        <v>994.8506716388846</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M44" t="n">
-        <v>1771.169262630639</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N44" t="n">
-        <v>2524.350279269257</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O44" t="n">
-        <v>3167.981135686362</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P44" t="n">
-        <v>3697.137833605513</v>
+        <v>4034.215172609714</v>
       </c>
       <c r="Q44" t="n">
-        <v>4018.298840400805</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R44" t="n">
         <v>4058.85548609037</v>
       </c>
       <c r="S44" t="n">
-        <v>3923.574410884471</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T44" t="n">
-        <v>3701.36792683133</v>
+        <v>3836.649002037229</v>
       </c>
       <c r="U44" t="n">
-        <v>3444.30743509084</v>
+        <v>3579.588510296739</v>
       </c>
       <c r="V44" t="n">
-        <v>3094.469880427321</v>
+        <v>3229.75095563322</v>
       </c>
       <c r="W44" t="n">
-        <v>2951.02239466846</v>
+        <v>2845.990654768388</v>
       </c>
       <c r="X44" t="n">
-        <v>2951.02239466846</v>
+        <v>2445.347256937341</v>
       </c>
       <c r="Y44" t="n">
-        <v>2550.08572161655</v>
+        <v>2445.347256937341</v>
       </c>
     </row>
     <row r="45">
@@ -7733,13 +7733,13 @@
         <v>729.7962235497394</v>
       </c>
       <c r="L45" t="n">
-        <v>729.7962235497394</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="M45" t="n">
-        <v>729.7962235497394</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="N45" t="n">
-        <v>729.7962235497394</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="O45" t="n">
         <v>1216.115948399794</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3618.790439770657</v>
+        <v>631.6800896476661</v>
       </c>
       <c r="C46" t="n">
-        <v>3447.697067332374</v>
+        <v>631.6800896476661</v>
       </c>
       <c r="D46" t="n">
-        <v>3288.202422655284</v>
+        <v>472.1854449705762</v>
       </c>
       <c r="E46" t="n">
-        <v>3127.291607523603</v>
+        <v>398.0349559908074</v>
       </c>
       <c r="F46" t="n">
-        <v>2962.660481634195</v>
+        <v>398.0349559908074</v>
       </c>
       <c r="G46" t="n">
-        <v>2795.410090559738</v>
+        <v>230.7845649163507</v>
       </c>
       <c r="H46" t="n">
-        <v>2645.802635365194</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I46" t="n">
-        <v>2529.456589469521</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J46" t="n">
-        <v>2543.539138874731</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K46" t="n">
-        <v>2698.091466596969</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L46" t="n">
-        <v>2957.988566877029</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M46" t="n">
-        <v>3247.252623317523</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N46" t="n">
-        <v>3528.091405711773</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O46" t="n">
-        <v>3787.652016038247</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P46" t="n">
-        <v>3993.327456287859</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q46" t="n">
-        <v>4058.85548609037</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R46" t="n">
-        <v>4031.225844775937</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S46" t="n">
-        <v>4031.225844775937</v>
+        <v>1424.184238222568</v>
       </c>
       <c r="T46" t="n">
-        <v>4031.225844775937</v>
+        <v>1184.63549919927</v>
       </c>
       <c r="U46" t="n">
-        <v>4031.225844775937</v>
+        <v>1184.63549919927</v>
       </c>
       <c r="V46" t="n">
-        <v>4031.225844775937</v>
+        <v>910.7497541387918</v>
       </c>
       <c r="W46" t="n">
-        <v>4031.225844775937</v>
+        <v>631.6800896476661</v>
       </c>
       <c r="X46" t="n">
-        <v>4031.225844775937</v>
+        <v>631.6800896476661</v>
       </c>
       <c r="Y46" t="n">
-        <v>3806.490146164702</v>
+        <v>631.6800896476661</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>395.5690244730517</v>
+        <v>502.6011371814506</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8224,22 +8224,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>280.2152552851256</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>853.701196452193</v>
+        <v>831.934058206498</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8306,19 +8306,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>214.6393123182355</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P6" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8470,10 +8470,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>396.2872824041708</v>
+        <v>328.6352265177691</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,10 +8531,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>124.9852666267724</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
@@ -8546,13 +8546,13 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>214.6393123182359</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8704,13 +8704,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>187.0531005093338</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.9230099351687</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8774,10 +8774,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>547.3465691139345</v>
+        <v>616.6125049502444</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8786,10 +8786,10 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8929,7 +8929,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>292.2496847286102</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>114.9230099351687</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>743.5567912259809</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>293.7680303325975</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>547.3465691139345</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9500,7 +9500,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9719,7 +9719,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>176.7732988419765</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
@@ -9734,7 +9734,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>205.4824228069005</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>548.7963290415029</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>706.040592805458</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10433,7 +10433,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>517.4884687476416</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,19 +10664,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>424.7983178153489</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
@@ -10685,7 +10685,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10825,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>245.6302329415199</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>276.4368863887011</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11077,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>396.2872824041708</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>529.7246381472005</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11299,7 +11299,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>292.2496847286102</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>114.9230099351687</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,7 +11390,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>548.9835243030855</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>221.3916728745719</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>188.0140889318869</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>30.12648705447947</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>147.9045671494194</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>14.85352857823881</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23706,7 +23706,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884234</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
     <row r="17">
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.66401796922133</v>
+        <v>62.5614280388869</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>85.08474153970712</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>128.8323376019694</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>45.5568195736796</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>150.4015626786364</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>46.96074852400506</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -24183,19 +24183,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>32.28731256679851</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24378,7 +24378,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>130.4742591606074</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>36.3651580272259</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>54.06597461814533</v>
       </c>
     </row>
     <row r="27">
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>35.19390956149866</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.14494677818664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>101.7038439222774</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>208.7979869195797</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>48.8424382211236</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>36.36515802722619</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>62.56142803888683</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.066646240065</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>237.6193444862571</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>174.0052140730986</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>108.096802717004</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25836,13 +25836,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>221.5920803845232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>103.6910800324171</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>237.9096869549106</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>85.89272289039262</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.0666462400659</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680081.557488081</v>
+        <v>680081.5574880809</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>739583.3519351475</v>
+        <v>739583.3519351474</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739583.3519351474</v>
+        <v>739583.3519351475</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739583.3519351474</v>
+        <v>739583.3519351473</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739583.3519351473</v>
+        <v>739583.3519351477</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680081.5574880809</v>
+        <v>680081.5574880808</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680081.5574880809</v>
+        <v>680081.5574880806</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746511</v>
       </c>
       <c r="C2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746511</v>
       </c>
       <c r="D2" t="n">
         <v>374629.5039746511</v>
@@ -26325,37 +26325,37 @@
         <v>306304.4898184097</v>
       </c>
       <c r="F2" t="n">
-        <v>306304.4898184097</v>
+        <v>306304.4898184098</v>
       </c>
       <c r="G2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="H2" t="n">
-        <v>333095.9676653582</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="I2" t="n">
         <v>333095.967665358</v>
       </c>
       <c r="J2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="K2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="L2" t="n">
-        <v>333095.9676653582</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="M2" t="n">
         <v>333095.9676653582</v>
       </c>
       <c r="N2" t="n">
-        <v>333095.9676653579</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="O2" t="n">
-        <v>306304.4898184096</v>
+        <v>306304.4898184097</v>
       </c>
       <c r="P2" t="n">
-        <v>306304.4898184097</v>
+        <v>306304.4898184098</v>
       </c>
     </row>
     <row r="3">
@@ -26420,10 +26420,10 @@
         <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
-        <v>122643.8415946218</v>
+        <v>122643.8415946219</v>
       </c>
       <c r="D4" t="n">
-        <v>122643.8415946218</v>
+        <v>122643.8415946219</v>
       </c>
       <c r="E4" t="n">
         <v>54821.80938920873</v>
@@ -26435,22 +26435,22 @@
         <v>59647.11115782197</v>
       </c>
       <c r="H4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="I4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="J4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="L4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="M4" t="n">
-        <v>59647.11115782199</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="N4" t="n">
         <v>59647.11115782197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59440.89225275364</v>
+        <v>-59440.89225275358</v>
       </c>
       <c r="C6" t="n">
-        <v>-2497.411760010815</v>
+        <v>-2497.411760010786</v>
       </c>
       <c r="D6" t="n">
         <v>156663.4589914556</v>
       </c>
       <c r="E6" t="n">
-        <v>189788.0770406274</v>
+        <v>189491.0117616871</v>
       </c>
       <c r="F6" t="n">
-        <v>189788.0770406273</v>
+        <v>189491.0117616872</v>
       </c>
       <c r="G6" t="n">
-        <v>161242.7617197532</v>
+        <v>161062.1811271042</v>
       </c>
       <c r="H6" t="n">
-        <v>202583.6462626629</v>
+        <v>202403.0656700137</v>
       </c>
       <c r="I6" t="n">
-        <v>202583.6462626627</v>
+        <v>202403.0656700137</v>
       </c>
       <c r="J6" t="n">
-        <v>65988.84545676777</v>
+        <v>65808.26486411871</v>
       </c>
       <c r="K6" t="n">
-        <v>75791.22355562885</v>
+        <v>75610.64296297991</v>
       </c>
       <c r="L6" t="n">
-        <v>202583.646262663</v>
+        <v>202403.0656700137</v>
       </c>
       <c r="M6" t="n">
-        <v>202583.6462626628</v>
+        <v>202403.0656700138</v>
       </c>
       <c r="N6" t="n">
-        <v>202583.6462626627</v>
+        <v>202403.0656700139</v>
       </c>
       <c r="O6" t="n">
-        <v>189788.0770406272</v>
+        <v>189491.0117616871</v>
       </c>
       <c r="P6" t="n">
-        <v>189788.0770406273</v>
+        <v>189491.0117616872</v>
       </c>
     </row>
   </sheetData>
@@ -27038,7 +27038,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>492.650301152567</v>
+        <v>492.6503011525671</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.19522188379983</v>
+        <v>325.994634282359</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>128.1378550829758</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27554,7 +27554,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27587,7 +27587,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>119.0440200142486</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>67.87175717051252</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>245.5605898280508</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>194.7158398879884</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>144.9156891163802</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>8.417798752367219</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>239.7674522930212</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>57.06664624006477</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>178.2755692717849</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N2" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>338.0047407346343</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34944,22 +34944,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>186.9250308280801</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>760.7889056955737</v>
+        <v>739.0217674498787</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>156.8878333182355</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P6" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35190,10 +35190,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>302.6379191232867</v>
+        <v>234.9858632368849</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>69.15948384215704</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>156.8878333182359</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35424,13 +35424,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>93.86332488355065</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.88920553601663</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2320453030855</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>203.1132950553931</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>24.88920553601663</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>685.9925074875634</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2320453030855</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>120.9475160573611</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>667.7658302215033</v>
@@ -36454,7 +36454,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>151.2227878040968</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>461.3739449367926</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.87875394152</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>203.1132950553931</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37797,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>302.6379191232867</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>473.6101143363514</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>203.1132950553931</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>24.88920553601663</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
